--- a/Course Materials/Gantt Chard_Production_V2.xlsx
+++ b/Course Materials/Gantt Chard_Production_V2.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20417"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66FC67F-C1B9-44E6-8EEF-6441D542B48F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9ABD402-4ECE-461B-BF25-1E32334E119E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
   <si>
     <r>
       <rPr>
@@ -848,6 +848,9 @@
     <xf numFmtId="1" fontId="9" fillId="6" borderId="21" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="10" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -877,9 +880,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="10" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1293,7 +1293,7 @@
   <dimension ref="A2:AB30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="72" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1350,7 +1350,7 @@
       </c>
       <c r="F3" s="37"/>
       <c r="G3" s="41">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H3" s="18"/>
       <c r="I3" s="6" t="s">
@@ -1385,22 +1385,22 @@
     </row>
     <row r="4" spans="1:28" s="4" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23"/>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="42" t="s">
+      <c r="G4" s="43" t="s">
         <v>6</v>
       </c>
       <c r="H4" s="38" t="s">
@@ -1445,18 +1445,18 @@
       <c r="U4" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="V4" s="52" t="s">
+      <c r="V4" s="42" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="43"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="44"/>
       <c r="H5" s="39">
         <v>1</v>
       </c>
@@ -1644,11 +1644,11 @@
       <c r="E9" s="31">
         <v>3</v>
       </c>
-      <c r="F9" s="31" t="s">
-        <v>26</v>
+      <c r="F9" s="31">
+        <v>4</v>
       </c>
       <c r="G9" s="17">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="H9" s="25"/>
       <c r="I9" s="13"/>
@@ -1681,14 +1681,14 @@
       <c r="D10" s="32">
         <v>3</v>
       </c>
-      <c r="E10" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="31" t="s">
-        <v>26</v>
+      <c r="E10" s="31">
+        <v>9</v>
+      </c>
+      <c r="F10" s="31">
+        <v>3</v>
       </c>
       <c r="G10" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="25"/>
       <c r="I10" s="13"/>
@@ -1722,14 +1722,14 @@
       <c r="D11" s="31">
         <v>3</v>
       </c>
-      <c r="E11" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="31" t="s">
-        <v>26</v>
+      <c r="E11" s="31">
+        <v>7</v>
+      </c>
+      <c r="F11" s="31">
+        <v>2</v>
       </c>
       <c r="G11" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="25"/>
       <c r="I11" s="13"/>
@@ -1763,14 +1763,14 @@
       <c r="D12" s="31">
         <v>3</v>
       </c>
-      <c r="E12" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="31" t="s">
-        <v>26</v>
+      <c r="E12" s="31">
+        <v>8</v>
+      </c>
+      <c r="F12" s="31">
+        <v>3</v>
       </c>
       <c r="G12" s="17">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="H12" s="25"/>
       <c r="I12" s="13"/>
@@ -1804,14 +1804,14 @@
       <c r="D13" s="31">
         <v>3</v>
       </c>
-      <c r="E13" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="31" t="s">
-        <v>26</v>
+      <c r="E13" s="31">
+        <v>13</v>
+      </c>
+      <c r="F13" s="31">
+        <v>2</v>
       </c>
       <c r="G13" s="17">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="H13" s="25"/>
       <c r="I13" s="13"/>
@@ -1845,14 +1845,14 @@
       <c r="D14" s="31">
         <v>1</v>
       </c>
-      <c r="E14" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="31" t="s">
-        <v>26</v>
+      <c r="E14" s="31">
+        <v>9</v>
+      </c>
+      <c r="F14" s="31">
+        <v>1</v>
       </c>
       <c r="G14" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="25"/>
       <c r="I14" s="13"/>
@@ -1886,14 +1886,14 @@
       <c r="D15" s="31">
         <v>2</v>
       </c>
-      <c r="E15" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="31" t="s">
-        <v>26</v>
+      <c r="E15" s="31">
+        <v>10</v>
+      </c>
+      <c r="F15" s="31">
+        <v>1</v>
       </c>
       <c r="G15" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="25"/>
       <c r="I15" s="13"/>
@@ -1927,14 +1927,14 @@
       <c r="D16" s="31">
         <v>2</v>
       </c>
-      <c r="E16" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="31" t="s">
-        <v>26</v>
+      <c r="E16" s="31">
+        <v>11</v>
+      </c>
+      <c r="F16" s="31">
+        <v>2</v>
       </c>
       <c r="G16" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="25"/>
       <c r="I16" s="13"/>

--- a/Course Materials/Gantt Chard_Production_V2.xlsx
+++ b/Course Materials/Gantt Chard_Production_V2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20417"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9ABD402-4ECE-461B-BF25-1E32334E119E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E99503-0B5D-4C7C-9E9B-DCF0E086B84B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,8 +19,8 @@
     <definedName name="PeriodInActual">'Project Planner'!A$5=MEDIAN('Project Planner'!A$5,'Project Planner'!$E1,'Project Planner'!$E1+'Project Planner'!$F1-1)</definedName>
     <definedName name="PeriodInPlan">'Project Planner'!A$5=MEDIAN('Project Planner'!A$5,'Project Planner'!$C1,'Project Planner'!$C1+'Project Planner'!$D1-1)</definedName>
     <definedName name="Plan">PeriodInPlan*('Project Planner'!$C1&gt;0)</definedName>
+    <definedName name="Print_Titles" localSheetId="0">'Project Planner'!$4:$5</definedName>
     <definedName name="TitleRegion..BO60">'Project Planner'!$B$4:$B$5</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Project Planner'!$4:$5</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <r>
       <rPr>
@@ -148,9 +148,6 @@
   </si>
   <si>
     <t>Software Configuration and Maiden Flight</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>Production of a vertical take-off and landing aircraft process</t>
@@ -400,7 +397,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -663,6 +660,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -721,7 +729,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -880,6 +888,27 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="10" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1292,9 +1321,7 @@
   </sheetPr>
   <dimension ref="A2:AB30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="72" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="72" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1341,7 +1368,7 @@
     <row r="3" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16"/>
       <c r="B3" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -1350,7 +1377,7 @@
       </c>
       <c r="F3" s="37"/>
       <c r="G3" s="41">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H3" s="18"/>
       <c r="I3" s="6" t="s">
@@ -1404,49 +1431,49 @@
         <v>6</v>
       </c>
       <c r="H4" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="38" t="s">
+      <c r="J4" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="38" t="s">
+      <c r="K4" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" s="38" t="s">
+      <c r="M4" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="38" t="s">
+      <c r="N4" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="N4" s="38" t="s">
+      <c r="O4" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="O4" s="38" t="s">
+      <c r="P4" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="P4" s="38" t="s">
+      <c r="Q4" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="Q4" s="38" t="s">
+      <c r="R4" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="R4" s="38" t="s">
+      <c r="S4" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="S4" s="38" t="s">
+      <c r="T4" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="T4" s="38" t="s">
+      <c r="U4" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="U4" s="38" t="s">
+      <c r="V4" s="42" t="s">
         <v>41</v>
-      </c>
-      <c r="V4" s="42" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1770,7 +1797,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="17">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H12" s="25"/>
       <c r="I12" s="13"/>
@@ -1811,7 +1838,7 @@
         <v>2</v>
       </c>
       <c r="G13" s="17">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H13" s="25"/>
       <c r="I13" s="13"/>
@@ -1960,7 +1987,7 @@
     <row r="17" spans="1:27" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
       <c r="B17" s="34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="29">
         <v>12</v>
@@ -1968,14 +1995,14 @@
       <c r="D17" s="31">
         <v>2</v>
       </c>
-      <c r="E17" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="31" t="s">
-        <v>26</v>
+      <c r="E17" s="31">
+        <v>14</v>
+      </c>
+      <c r="F17" s="31">
+        <v>1</v>
       </c>
       <c r="G17" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="25"/>
       <c r="I17" s="13"/>
@@ -2009,14 +2036,14 @@
       <c r="D18" s="31">
         <v>2</v>
       </c>
-      <c r="E18" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="31" t="s">
-        <v>26</v>
+      <c r="E18" s="31">
+        <v>14</v>
+      </c>
+      <c r="F18" s="31">
+        <v>2</v>
       </c>
       <c r="G18" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" s="25"/>
       <c r="I18" s="13"/>
@@ -2040,39 +2067,39 @@
       <c r="AA18"/>
     </row>
     <row r="19" spans="1:27" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="27">
+      <c r="C19" s="54">
         <v>13</v>
       </c>
-      <c r="D19" s="31">
+      <c r="D19" s="55">
         <v>3</v>
       </c>
-      <c r="E19" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="17">
-        <v>0</v>
-      </c>
-      <c r="H19" s="25"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="14"/>
+      <c r="E19" s="55">
+        <v>15</v>
+      </c>
+      <c r="F19" s="55">
+        <v>1</v>
+      </c>
+      <c r="G19" s="56">
+        <v>1</v>
+      </c>
+      <c r="H19" s="57"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="58"/>
+      <c r="P19" s="58"/>
+      <c r="Q19" s="58"/>
+      <c r="R19" s="58"/>
+      <c r="S19" s="58"/>
+      <c r="T19" s="58"/>
+      <c r="U19" s="58"/>
+      <c r="V19" s="59"/>
       <c r="W19"/>
       <c r="X19"/>
       <c r="Y19"/>
@@ -2163,7 +2190,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup scale="54" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="55" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
